--- a/Technology/Software/Duolingo.xlsx
+++ b/Technology/Software/Duolingo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E38CCF-7469-AB45-A14C-18C2FB94A044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44E56C9-E146-1F48-A416-9BE62ADCE857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27260" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,6 +1012,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,12 +1029,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2218,38 +2218,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>146.40129999999999</v>
-    <v>60.500300000000003</v>
-    <v>1.0269999999999999</v>
-    <v>2.58</v>
-    <v>1.8662999999999999E-2</v>
-    <v>1.19</v>
-    <v>8.4510000000000002E-3</v>
+    <v>156.11000000000001</v>
+    <v>64.73</v>
+    <v>1.0249999999999999</v>
+    <v>5.44</v>
+    <v>3.6181999999999999E-2</v>
+    <v>-0.09</v>
+    <v>-5.777E-4</v>
     <v>USD</v>
     <v>Duolingo, Inc. (Duolingo) is a technology company. The Company's flagship application, Duolingo, is a language learning application. The Duolingo language learning application is a way to learn languages. The Company offers courses in approximately 40 languages to more than 60 million monthly active users. The application is also available in the education category on both Google Play and the Apple App Store. Duolingo can also be accessed by desktop computers via a Web browser at www.duolingo.com. All course content on Duolingo can be accessed for free. Its subscription offering, Super Duolingo, offers learners additional features to enhance their learning experience. It also launched a family plan, which includes up to six subscribers under one annual plan. The Duolingo English Test is an online English proficiency assessment. Anyone with a computer, webcam and Internet connection can take the test from anywhere, at any time.</v>
-    <v>600</v>
+    <v>650</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5900 PENN AVE, SECOND FLOOR, PITTSBURGH, PA, 15206 US</v>
-    <v>142.44999999999999</v>
+    <v>156.11000000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.911728205472</v>
+    <v>45068.856233182814</v>
     <v>0</v>
-    <v>137.13999999999999</v>
-    <v>5722350000</v>
+    <v>150.86000000000001</v>
+    <v>6395598575</v>
     <v>DUOLINGO, INC.</v>
     <v>DUOLINGO, INC.</v>
-    <v>137.87</v>
-    <v>138.24</v>
-    <v>140.82</v>
-    <v>142.01</v>
-    <v>40635920</v>
+    <v>151.27000000000001</v>
+    <v>150.35</v>
+    <v>155.79</v>
+    <v>155.69999999999999</v>
+    <v>41052690</v>
     <v>DUOL</v>
     <v>DUOLINGO, INC. (XNAS:DUOL)</v>
-    <v>360955</v>
-    <v>540531</v>
+    <v>619893</v>
+    <v>701290</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2411,9 +2411,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2833,10 +2833,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I89" sqref="I89"/>
+      <selection pane="bottomRight" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3342,15 +3342,15 @@
       </c>
       <c r="L16" s="31">
         <f>M101/E3</f>
-        <v>15.486948402549425</v>
+        <v>17.309026035534988</v>
       </c>
       <c r="M16" s="31">
         <f>M101/E28</f>
-        <v>-85.652382164079697</v>
+        <v>-95.729595937673068</v>
       </c>
       <c r="N16" s="32">
         <f>M101/E106</f>
-        <v>131.45157585224663</v>
+        <v>146.91717759349444</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4505,10 +4505,10 @@
       <c r="E83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="60" t="s">
+      <c r="L83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="M83" s="61"/>
+      <c r="M83" s="63"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4526,10 +4526,10 @@
       <c r="E84" s="1">
         <v>-6655000</v>
       </c>
-      <c r="L84" s="62" t="s">
+      <c r="L84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="M84" s="63"/>
+      <c r="M84" s="65"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4743,10 +4743,10 @@
       <c r="E93" s="1">
         <v>-4562000</v>
       </c>
-      <c r="L93" s="62" t="s">
+      <c r="L93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="M93" s="63"/>
+      <c r="M93" s="65"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="M95" s="39" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.0269999999999999</v>
+        <v>1.0249999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="M97" s="37">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>8.5162349999999998E-2</v>
+        <v>8.5076249999999992E-2</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4858,10 +4858,10 @@
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L98" s="62" t="s">
+      <c r="L98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="M98" s="63"/>
+      <c r="M98" s="65"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="M100" s="35">
         <f>M99/M103</f>
-        <v>8.1475298109529044E-3</v>
+        <v>7.2961175022913773E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="M101" s="40" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5722350000</v>
+        <v>6395598575</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="M102" s="35">
         <f>M101/M103</f>
-        <v>0.9918524701890471</v>
+        <v>0.99270388249770858</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="M103" s="41">
         <f>M99+M101</f>
-        <v>5769356000</v>
+        <v>6442604575</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -4999,10 +4999,10 @@
       <c r="E104" s="11">
         <v>608180000</v>
       </c>
-      <c r="L104" s="62" t="s">
+      <c r="L104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="M104" s="63"/>
+      <c r="M104" s="65"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="M105" s="27">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>8.446848721460419E-2</v>
+        <v>8.4455523683345676E-2</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5094,7 +5094,7 @@
       <c r="I107" s="43"/>
       <c r="J107" s="46">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>2188774871.0081487</v>
+        <v>2189252105.9175453</v>
       </c>
       <c r="K107" s="47" t="s">
         <v>148</v>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="J108" s="46">
         <f>J107+J106</f>
-        <v>2315763290.9419975</v>
+        <v>2316240525.8513942</v>
       </c>
       <c r="K108" s="47" t="s">
         <v>144</v>
@@ -5135,14 +5135,14 @@
       </c>
       <c r="M108" s="51">
         <f>M105</f>
-        <v>8.446848721460419E-2</v>
+        <v>8.4455523683345676E-2</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="64" t="s">
+      <c r="F109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="G109" s="65"/>
+      <c r="G109" s="61"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F110" s="52" t="s">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="G110" s="40">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1789390495.3284094</v>
+        <v>1789808777.6689353</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="G113" s="40">
         <f>G110+G111-G112</f>
-        <v>2350564495.3284092</v>
+        <v>2350982777.6689353</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G114" s="53" cm="1">
         <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>40635920</v>
+        <v>41052690</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="G115" s="55">
         <f>G113/G114</f>
-        <v>57.844500514038053</v>
+        <v>57.267447703644642</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="G116" s="56" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>140.82</v>
+        <v>155.79</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="G117" s="58">
         <f>G115/G116-1</f>
-        <v>-0.58923092945577293</v>
+        <v>-0.63240613836802972</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Duolingo.xlsx
+++ b/Technology/Software/Duolingo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44E56C9-E146-1F48-A416-9BE62ADCE857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3597128-067B-5B40-A7CF-44677147DF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27260" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1030,6 +1030,8 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2218,13 +2220,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>156.11000000000001</v>
+    <v>157.41999999999999</v>
     <v>64.73</v>
-    <v>1.0249999999999999</v>
-    <v>5.44</v>
-    <v>3.6181999999999999E-2</v>
-    <v>-0.09</v>
-    <v>-5.777E-4</v>
+    <v>1.0349999999999999</v>
+    <v>6.12</v>
+    <v>4.2790999999999996E-2</v>
+    <v>-1.1299999999999999</v>
+    <v>-7.5770000000000004E-3</v>
     <v>USD</v>
     <v>Duolingo, Inc. (Duolingo) is a technology company. The Company's flagship application, Duolingo, is a language learning application. The Duolingo language learning application is a way to learn languages. The Company offers courses in approximately 40 languages to more than 60 million monthly active users. The application is also available in the education category on both Google Play and the Apple App Store. Duolingo can also be accessed by desktop computers via a Web browser at www.duolingo.com. All course content on Duolingo can be accessed for free. Its subscription offering, Super Duolingo, offers learners additional features to enhance their learning experience. It also launched a family plan, which includes up to six subscribers under one annual plan. The Duolingo English Test is an online English proficiency assessment. Anyone with a computer, webcam and Internet connection can take the test from anywhere, at any time.</v>
     <v>650</v>
@@ -2232,24 +2234,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5900 PENN AVE, SECOND FLOOR, PITTSBURGH, PA, 15206 US</v>
-    <v>156.11000000000001</v>
+    <v>151.97409999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45068.856233182814</v>
+    <v>45072.99978484922</v>
     <v>0</v>
-    <v>150.86000000000001</v>
-    <v>6395598575</v>
+    <v>142.37</v>
+    <v>6122598000</v>
     <v>DUOLINGO, INC.</v>
     <v>DUOLINGO, INC.</v>
-    <v>151.27000000000001</v>
-    <v>150.35</v>
-    <v>155.79</v>
-    <v>155.69999999999999</v>
+    <v>143.69</v>
+    <v>143.02000000000001</v>
+    <v>149.13999999999999</v>
+    <v>148.01</v>
     <v>41052690</v>
     <v>DUOL</v>
     <v>DUOLINGO, INC. (XNAS:DUOL)</v>
-    <v>619893</v>
-    <v>701290</v>
+    <v>507246</v>
+    <v>730928</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2411,9 +2413,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2833,10 +2835,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G99" sqref="G99"/>
+      <selection pane="bottomRight" activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2927,19 +2929,19 @@
         <v>369495000</v>
       </c>
       <c r="F3" s="29">
-        <v>492800000</v>
+        <v>506000000</v>
       </c>
       <c r="G3" s="29">
-        <v>610000000</v>
+        <v>627000000</v>
       </c>
       <c r="H3" s="29">
-        <v>761400000</v>
+        <v>787200000</v>
       </c>
       <c r="I3" s="29">
-        <v>930000000</v>
+        <v>950000000</v>
       </c>
       <c r="J3" s="29">
-        <v>1072000000</v>
+        <v>1100000000</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>109</v>
@@ -2973,23 +2975,23 @@
       </c>
       <c r="F4" s="16">
         <f t="shared" ref="F4:J4" si="0">(F3/E3)-1</f>
-        <v>0.33371222885289376</v>
+        <v>0.36943666355431071</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.23782467532467533</v>
+        <v>0.23913043478260865</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.2481967213114753</v>
+        <v>0.25550239234449768</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.2214342001576044</v>
+        <v>0.20680894308943087</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.15268817204301066</v>
+        <v>0.15789473684210531</v>
       </c>
       <c r="K4" s="17">
         <f>(E4+D4+C4)/3</f>
@@ -3342,15 +3344,15 @@
       </c>
       <c r="L16" s="31">
         <f>M101/E3</f>
-        <v>17.309026035534988</v>
+        <v>16.570178216214021</v>
       </c>
       <c r="M16" s="31">
         <f>M101/E28</f>
-        <v>-95.729595937673068</v>
+        <v>-91.643311529883704</v>
       </c>
       <c r="N16" s="32">
         <f>M101/E106</f>
-        <v>146.91717759349444</v>
+        <v>140.64591564825875</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4792,7 +4794,7 @@
       </c>
       <c r="M95" s="39" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.0249999999999999</v>
+        <v>1.0349999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4839,7 +4841,7 @@
       </c>
       <c r="M97" s="37">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>8.5076249999999992E-2</v>
+        <v>8.5506749999999992E-2</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4908,7 +4910,7 @@
       </c>
       <c r="M100" s="35">
         <f>M99/M103</f>
-        <v>7.2961175022913773E-3</v>
+        <v>7.6189654960026609E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4932,7 +4934,7 @@
       </c>
       <c r="M101" s="40" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6395598575</v>
+        <v>6122598000</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4956,7 +4958,7 @@
       </c>
       <c r="M102" s="35">
         <f>M101/M103</f>
-        <v>0.99270388249770858</v>
+        <v>0.99238103450399739</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4980,7 +4982,7 @@
       </c>
       <c r="M103" s="41">
         <f>M99+M101</f>
-        <v>6442604575</v>
+        <v>6169604000</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5021,18 +5023,28 @@
         <f>(E106/D106)-1</f>
         <v>13.686909581646423</v>
       </c>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
+      <c r="F105" s="66">
+        <v>88341000</v>
+      </c>
+      <c r="G105" s="66">
+        <v>123600000</v>
+      </c>
+      <c r="H105" s="66">
+        <v>202700000</v>
+      </c>
+      <c r="I105" s="66">
+        <v>250000000</v>
+      </c>
+      <c r="J105" s="66">
+        <v>300000000</v>
+      </c>
       <c r="K105" s="15"/>
       <c r="L105" s="26" t="s">
         <v>108</v>
       </c>
       <c r="M105" s="27">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>8.4455523683345676E-2</v>
+        <v>8.4855277022074668E-2</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5053,23 +5065,23 @@
       </c>
       <c r="F106" s="42">
         <f>E106*(1+$M$106)</f>
-        <v>53926187.858285248</v>
+        <v>54230190.73262462</v>
       </c>
       <c r="G106" s="42">
         <f t="shared" ref="G106:J106" si="6">F106*(1+$M$106)</f>
-        <v>66802208.419715874</v>
+        <v>67557511.414519086</v>
       </c>
       <c r="H106" s="42">
         <f t="shared" si="6"/>
-        <v>82752651.85587436</v>
+        <v>84160082.914426968</v>
       </c>
       <c r="I106" s="42">
         <f t="shared" si="6"/>
-        <v>102511601.80444634</v>
+        <v>104842813.29878886</v>
       </c>
       <c r="J106" s="42">
         <f t="shared" si="6"/>
-        <v>126988419.93384881</v>
+        <v>130608420.5214158</v>
       </c>
       <c r="K106" s="43" t="s">
         <v>146</v>
@@ -5079,7 +5091,7 @@
       </c>
       <c r="M106" s="45">
         <f>(SUM(F4:J4)/5)</f>
-        <v>0.23877119953793188</v>
+        <v>0.24575463412259063</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5092,9 +5104,9 @@
       <c r="G107" s="43"/>
       <c r="H107" s="43"/>
       <c r="I107" s="43"/>
-      <c r="J107" s="46">
-        <f>J106*(1+M107)/(M108-M107)</f>
-        <v>2189252105.9175453</v>
+      <c r="J107" s="67">
+        <f>J105*(1+M107)/(M108-M107)</f>
+        <v>5137391643.6238995</v>
       </c>
       <c r="K107" s="47" t="s">
         <v>148</v>
@@ -5109,23 +5121,23 @@
     <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="F108" s="46">
         <f t="shared" ref="F108:H108" si="7">F107+F106</f>
-        <v>53926187.858285248</v>
+        <v>54230190.73262462</v>
       </c>
       <c r="G108" s="46">
         <f t="shared" si="7"/>
-        <v>66802208.419715874</v>
+        <v>67557511.414519086</v>
       </c>
       <c r="H108" s="46">
         <f t="shared" si="7"/>
-        <v>82752651.85587436</v>
+        <v>84160082.914426968</v>
       </c>
       <c r="I108" s="46">
         <f>I107+I106</f>
-        <v>102511601.80444634</v>
-      </c>
-      <c r="J108" s="46">
-        <f>J107+J106</f>
-        <v>2316240525.8513942</v>
+        <v>104842813.29878886</v>
+      </c>
+      <c r="J108" s="67">
+        <f>J107+J105</f>
+        <v>5437391643.6238995</v>
       </c>
       <c r="K108" s="47" t="s">
         <v>144</v>
@@ -5135,7 +5147,7 @@
       </c>
       <c r="M108" s="51">
         <f>M105</f>
-        <v>8.4455523683345676E-2</v>
+        <v>8.4855277022074668E-2</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5150,7 +5162,7 @@
       </c>
       <c r="G110" s="40">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>1789808777.6689353</v>
+        <v>3867524118.7857952</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5177,7 +5189,7 @@
       </c>
       <c r="G113" s="40">
         <f>G110+G111-G112</f>
-        <v>2350982777.6689353</v>
+        <v>4428698118.7857952</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5195,7 +5207,7 @@
       </c>
       <c r="G115" s="55">
         <f>G113/G114</f>
-        <v>57.267447703644642</v>
+        <v>107.87839039989329</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5204,7 +5216,7 @@
       </c>
       <c r="G116" s="56" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>155.79</v>
+        <v>149.13999999999999</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5213,7 +5225,7 @@
       </c>
       <c r="G117" s="58">
         <f>G115/G116-1</f>
-        <v>-0.63240613836802972</v>
+        <v>-0.27666360198542783</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5244,7 +5256,7 @@
     <hyperlink ref="D74" r:id="rId7" tooltip="https://www.sec.gov/Archives/edgar/data/1562088/000156208822000039/0001562088-22-000039-index.htm" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="E36" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1562088/000156208823000052/0001562088-23-000052-index.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E74" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1562088/000156208823000052/0001562088-23-000052-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NYSE:TOST/explorer/revenue_proj" xr:uid="{3D929342-21D7-8547-B9EB-2B0B36B7C0D2}"/>
+    <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NASDAQGS:DUOL/explorer/revenue_proj" xr:uid="{3D929342-21D7-8547-B9EB-2B0B36B7C0D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId11"/>

--- a/Technology/Software/Duolingo.xlsx
+++ b/Technology/Software/Duolingo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3597128-067B-5B40-A7CF-44677147DF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C657E326-F08A-A14C-9CD9-DF828F56A3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27260" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,6 +1012,8 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1030,8 +1032,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2220,13 +2220,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>157.41999999999999</v>
+    <v>168.39500000000001</v>
     <v>64.73</v>
-    <v>1.0349999999999999</v>
-    <v>6.12</v>
-    <v>4.2790999999999996E-2</v>
-    <v>-1.1299999999999999</v>
-    <v>-7.5770000000000004E-3</v>
+    <v>1.0389999999999999</v>
+    <v>0.7</v>
+    <v>4.9189999999999998E-3</v>
     <v>USD</v>
     <v>Duolingo, Inc. (Duolingo) is a technology company. The Company's flagship application, Duolingo, is a language learning application. The Duolingo language learning application is a way to learn languages. The Company offers courses in approximately 40 languages to more than 60 million monthly active users. The application is also available in the education category on both Google Play and the Apple App Store. Duolingo can also be accessed by desktop computers via a Web browser at www.duolingo.com. All course content on Duolingo can be accessed for free. Its subscription offering, Super Duolingo, offers learners additional features to enhance their learning experience. It also launched a family plan, which includes up to six subscribers under one annual plan. The Duolingo English Test is an online English proficiency assessment. Anyone with a computer, webcam and Internet connection can take the test from anywhere, at any time.</v>
     <v>650</v>
@@ -2234,24 +2232,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5900 PENN AVE, SECOND FLOOR, PITTSBURGH, PA, 15206 US</v>
-    <v>151.97409999999999</v>
+    <v>143.995</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.99978484922</v>
+    <v>45099.964127488282</v>
     <v>0</v>
-    <v>142.37</v>
-    <v>6122598000</v>
+    <v>139.27000000000001</v>
+    <v>5870534670</v>
     <v>DUOLINGO, INC.</v>
     <v>DUOLINGO, INC.</v>
-    <v>143.69</v>
-    <v>143.02000000000001</v>
-    <v>149.13999999999999</v>
-    <v>148.01</v>
+    <v>141.16999999999999</v>
+    <v>142.30000000000001</v>
+    <v>143</v>
     <v>41052690</v>
     <v>DUOL</v>
     <v>DUOLINGO, INC. (XNAS:DUOL)</v>
-    <v>507246</v>
-    <v>730928</v>
+    <v>66</v>
+    <v>644027</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2283,8 +2280,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2304,7 +2299,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2321,7 +2315,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2332,16 +2326,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2405,19 +2396,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2461,9 +2446,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2471,9 +2453,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2835,10 +2814,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G125" sqref="G125"/>
+      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3344,15 +3323,15 @@
       </c>
       <c r="L16" s="31">
         <f>M101/E3</f>
-        <v>16.570178216214021</v>
+        <v>15.887994884910485</v>
       </c>
       <c r="M16" s="31">
         <f>M101/E28</f>
-        <v>-91.643311529883704</v>
+        <v>-87.870416710323454</v>
       </c>
       <c r="N16" s="32">
         <f>M101/E106</f>
-        <v>140.64591564825875</v>
+        <v>134.85561586878617</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
@@ -4507,10 +4486,10 @@
       <c r="E83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L83" s="62" t="s">
+      <c r="L83" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="M83" s="63"/>
+      <c r="M83" s="65"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4528,10 +4507,10 @@
       <c r="E84" s="1">
         <v>-6655000</v>
       </c>
-      <c r="L84" s="64" t="s">
+      <c r="L84" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="M84" s="65"/>
+      <c r="M84" s="67"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4745,10 +4724,10 @@
       <c r="E93" s="1">
         <v>-4562000</v>
       </c>
-      <c r="L93" s="64" t="s">
+      <c r="L93" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="M93" s="65"/>
+      <c r="M93" s="67"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4794,7 +4773,7 @@
       </c>
       <c r="M95" s="39" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.0349999999999999</v>
+        <v>1.0389999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4841,7 +4820,7 @@
       </c>
       <c r="M97" s="37">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>8.5506749999999992E-2</v>
+        <v>8.5678950000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4860,10 +4839,10 @@
       <c r="E98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L98" s="64" t="s">
+      <c r="L98" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="M98" s="65"/>
+      <c r="M98" s="67"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4910,7 +4889,7 @@
       </c>
       <c r="M100" s="35">
         <f>M99/M103</f>
-        <v>7.6189654960026609E-3</v>
+        <v>7.9435026510768364E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4934,7 +4913,7 @@
       </c>
       <c r="M101" s="40" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6122598000</v>
+        <v>5870534670</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4958,7 +4937,7 @@
       </c>
       <c r="M102" s="35">
         <f>M101/M103</f>
-        <v>0.99238103450399739</v>
+        <v>0.99205649734892321</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4982,7 +4961,7 @@
       </c>
       <c r="M103" s="41">
         <f>M99+M101</f>
-        <v>6169604000</v>
+        <v>5917540670</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5001,10 +4980,10 @@
       <c r="E104" s="11">
         <v>608180000</v>
       </c>
-      <c r="L104" s="64" t="s">
+      <c r="L104" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="M104" s="65"/>
+      <c r="M104" s="67"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5023,19 +5002,19 @@
         <f>(E106/D106)-1</f>
         <v>13.686909581646423</v>
       </c>
-      <c r="F105" s="66">
+      <c r="F105" s="60">
         <v>88341000</v>
       </c>
-      <c r="G105" s="66">
+      <c r="G105" s="60">
         <v>123600000</v>
       </c>
-      <c r="H105" s="66">
+      <c r="H105" s="60">
         <v>202700000</v>
       </c>
-      <c r="I105" s="66">
+      <c r="I105" s="60">
         <v>250000000</v>
       </c>
-      <c r="J105" s="66">
+      <c r="J105" s="60">
         <v>300000000</v>
       </c>
       <c r="K105" s="15"/>
@@ -5044,7 +5023,7 @@
       </c>
       <c r="M105" s="27">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>8.4855277022074668E-2</v>
+        <v>8.4998359033533533E-2</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5104,9 +5083,9 @@
       <c r="G107" s="43"/>
       <c r="H107" s="43"/>
       <c r="I107" s="43"/>
-      <c r="J107" s="67">
+      <c r="J107" s="61">
         <f>J105*(1+M107)/(M108-M107)</f>
-        <v>5137391643.6238995</v>
+        <v>5125140169.7192411</v>
       </c>
       <c r="K107" s="47" t="s">
         <v>148</v>
@@ -5135,9 +5114,9 @@
         <f>I107+I106</f>
         <v>104842813.29878886</v>
       </c>
-      <c r="J108" s="67">
+      <c r="J108" s="61">
         <f>J107+J105</f>
-        <v>5437391643.6238995</v>
+        <v>5425140169.7192411</v>
       </c>
       <c r="K108" s="47" t="s">
         <v>144</v>
@@ -5147,14 +5126,14 @@
       </c>
       <c r="M108" s="51">
         <f>M105</f>
-        <v>8.4855277022074668E-2</v>
+        <v>8.4998359033533533E-2</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="60" t="s">
+      <c r="F109" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="G109" s="61"/>
+      <c r="G109" s="63"/>
     </row>
     <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="F110" s="52" t="s">
@@ -5162,7 +5141,7 @@
       </c>
       <c r="G110" s="40">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>3867524118.7857952</v>
+        <v>3856903246.4249468</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5189,7 +5168,7 @@
       </c>
       <c r="G113" s="40">
         <f>G110+G111-G112</f>
-        <v>4428698118.7857952</v>
+        <v>4418077246.4249468</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5207,7 +5186,7 @@
       </c>
       <c r="G115" s="55">
         <f>G113/G114</f>
-        <v>107.87839039989329</v>
+        <v>107.61967721055422</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5216,7 +5195,7 @@
       </c>
       <c r="G116" s="56" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>149.13999999999999</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5225,7 +5204,7 @@
       </c>
       <c r="G117" s="58">
         <f>G115/G116-1</f>
-        <v>-0.27666360198542783</v>
+        <v>-0.24741484468143904</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Duolingo.xlsx
+++ b/Technology/Software/Duolingo.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C657E326-F08A-A14C-9CD9-DF828F56A3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D81DAB-F6D2-454D-9011-484642E7108A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27260" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +544,50 @@
   </si>
   <si>
     <t>Shares (No dilution)</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +856,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +870,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -938,98 +920,95 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1082,7 +1061,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>DUOL</a:t>
+              <a:t>Duolingo</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1121,10 +1100,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.5084611682827609E-2"/>
-          <c:y val="0.11174846986596723"/>
-          <c:w val="0.87663374285081574"/>
-          <c:h val="0.76839833446590655"/>
+          <c:x val="9.1408350426784885E-2"/>
+          <c:y val="0.16070102484133247"/>
+          <c:w val="0.84136475881691264"/>
+          <c:h val="0.67672281796071332"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1178,6 +1157,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$E$3</c:f>
@@ -1201,7 +1201,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-039E-B14D-86F9-BDD475EFA44C}"/>
+              <c16:uniqueId val="{00000000-AFD4-D549-B93F-BA60B15CD973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1210,11 +1210,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1252,30 +1252,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$E$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-12303000</c:v>
+                  <c:v>-13554000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13452000</c:v>
+                  <c:v>-15776000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-57232000</c:v>
+                  <c:v>-60135000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-61001000</c:v>
+                  <c:v>-66809000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-039E-B14D-86F9-BDD475EFA44C}"/>
+              <c16:uniqueId val="{00000001-AFD4-D549-B93F-BA60B15CD973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1284,11 +1305,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1326,9 +1347,30 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$E$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$E$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1349,7 +1391,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-039E-B14D-86F9-BDD475EFA44C}"/>
+              <c16:uniqueId val="{00000002-AFD4-D549-B93F-BA60B15CD973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1363,11 +1405,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="337547071"/>
-        <c:axId val="337548799"/>
+        <c:axId val="83851216"/>
+        <c:axId val="83565136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337547071"/>
+        <c:axId val="83851216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1437,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1407,7 +1449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337548799"/>
+        <c:crossAx val="83565136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1415,7 +1457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337548799"/>
+        <c:axId val="83565136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1463,7 +1505,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337547071"/>
+        <c:crossAx val="83851216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1481,10 +1523,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34765498730283545"/>
-          <c:y val="0.91726039740555954"/>
-          <c:w val="0.30737223342844988"/>
-          <c:h val="4.6468701085824411E-2"/>
+          <c:x val="0.36064103751736915"/>
+          <c:y val="0.89079542318823834"/>
+          <c:w val="0.31905395354992389"/>
+          <c:h val="6.6824788710702118E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2064,22 +2106,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>39687</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>41274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1571624</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:colOff>1555749</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F7C13C1-E6CC-65A9-B89C-BC3DA4619111}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCC41F5-5C6D-57E3-58D3-98220CD17F4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,6 +2140,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2814,10 +2910,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2843,19 +2939,19 @@
       <c r="E1" s="8">
         <v>2022</v>
       </c>
-      <c r="F1" s="28">
+      <c r="F1" s="24">
         <v>2023</v>
       </c>
-      <c r="G1" s="28">
+      <c r="G1" s="24">
         <v>2024</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="24">
         <v>2025</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="24">
         <v>2026</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="24">
         <v>2027</v>
       </c>
     </row>
@@ -2864,25 +2960,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -2907,37 +3003,37 @@
       <c r="E3" s="1">
         <v>369495000</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="25">
         <v>506000000</v>
       </c>
-      <c r="G3" s="29">
-        <v>627000000</v>
-      </c>
-      <c r="H3" s="29">
-        <v>787200000</v>
-      </c>
-      <c r="I3" s="29">
-        <v>950000000</v>
-      </c>
-      <c r="J3" s="29">
-        <v>1100000000</v>
+      <c r="G3" s="25">
+        <v>636000000</v>
+      </c>
+      <c r="H3" s="25">
+        <v>790000000</v>
+      </c>
+      <c r="I3" s="25">
+        <v>900000000</v>
+      </c>
+      <c r="J3" s="25">
+        <v>1016000000</v>
       </c>
       <c r="K3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="N3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2958,19 +3054,19 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.23913043478260865</v>
+        <v>0.2569169960474309</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.25550239234449768</v>
+        <v>0.24213836477987427</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.20680894308943087</v>
+        <v>0.139240506329114</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.15789473684210531</v>
+        <v>0.12888888888888883</v>
       </c>
       <c r="K4" s="17">
         <f>(E4+D4+C4)/3</f>
@@ -2985,7 +3081,7 @@
         <v>1.02890773457879</v>
       </c>
       <c r="N4" s="17">
-        <f>(E105+D105+C105)/3</f>
+        <f>(E106+D106+C106)/3</f>
         <v>2.4924563203943428</v>
       </c>
       <c r="T4" s="16"/>
@@ -3040,16 +3136,16 @@
         <v>270064000</v>
       </c>
       <c r="K6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="N6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3081,7 +3177,7 @@
         <v>-0.18079999999999999</v>
       </c>
       <c r="N7" s="21">
-        <f>E106/E3</f>
+        <f>E107/E3</f>
         <v>0.11781485541076334</v>
       </c>
     </row>
@@ -3104,7 +3200,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3125,16 +3221,16 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="K9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="M9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3204,21 +3300,21 @@
         <v>184815000</v>
       </c>
       <c r="K12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3260,16 +3356,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3289,16 +3385,16 @@
         <v>335259000</v>
       </c>
       <c r="K15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="N15" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3317,41 +3413,41 @@
       <c r="E16" s="1">
         <v>434690000</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="26">
         <f>(E35+D35+C35)/3</f>
         <v>-8.7773900468420887E-2</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="37">
         <f>M101/E3</f>
         <v>15.887994884910485</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="37">
         <f>M101/E28</f>
         <v>-87.870416710323454</v>
       </c>
-      <c r="N16" s="32">
-        <f>M101/E106</f>
+      <c r="N16" s="34">
+        <f>M101/E107</f>
         <v>134.85561586878617</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3368,10 +3464,19 @@
         <v>4870000</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3387,14 +3492,41 @@
       <c r="E19" s="10">
         <v>-61001000</v>
       </c>
-      <c r="K19" s="33">
+      <c r="F19" s="38">
+        <v>58100000</v>
+      </c>
+      <c r="G19" s="38">
+        <v>98610000</v>
+      </c>
+      <c r="H19" s="38">
+        <v>155000000</v>
+      </c>
+      <c r="I19" s="38">
+        <v>170000000</v>
+      </c>
+      <c r="J19" s="38">
+        <v>216000000</v>
+      </c>
+      <c r="K19" s="27">
         <f>E40-E56-E61</f>
         <v>561174000</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="33">
+        <f>M101/F3</f>
+        <v>11.601847173913043</v>
+      </c>
+      <c r="M19" s="33">
+        <f>M101/F28</f>
+        <v>-117.4106934</v>
+      </c>
+      <c r="N19" s="34">
+        <f>M101/F105</f>
+        <v>-261.26270931149702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3409,8 +3541,28 @@
         <f>(E19/D19)-1</f>
         <v>6.5854766564160006E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F20" s="16">
+        <f t="shared" ref="F20:J20" si="3">(F19/E19)-1</f>
+        <v>-1.9524434025671711</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.69724612736660929</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.57184869688672557</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="3"/>
+        <v>9.6774193548387011E-2</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.27058823529411757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3426,8 +3578,34 @@
       <c r="E21" s="2">
         <v>-0.1651</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F21" s="39">
+        <f>F19/F3</f>
+        <v>0.11482213438735178</v>
+      </c>
+      <c r="G21" s="39">
+        <f t="shared" ref="G21:J21" si="4">G19/G3</f>
+        <v>0.15504716981132075</v>
+      </c>
+      <c r="H21" s="39">
+        <f t="shared" si="4"/>
+        <v>0.19620253164556961</v>
+      </c>
+      <c r="I21" s="39">
+        <f t="shared" si="4"/>
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="J21" s="39">
+        <f t="shared" si="4"/>
+        <v>0.2125984251968504</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3443,8 +3621,16 @@
       <c r="E22" s="10">
         <v>-65195000</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="M22" s="35">
+        <f>(-1*E98)/M101</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="36">
+        <f>E107/M101</f>
+        <v>7.4153382012136209E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3461,7 +3647,7 @@
         <v>-0.1764</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3478,7 +3664,7 @@
         <v>-676000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3495,7 +3681,7 @@
         <v>-65871000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3512,12 +3698,12 @@
         <v>-0.17829999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
         <v>68000</v>
@@ -3529,7 +3715,7 @@
         <v>938000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3545,10 +3731,25 @@
       <c r="E28" s="11">
         <v>-66809000</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="40">
+        <v>-50000000</v>
+      </c>
+      <c r="G28" s="40">
+        <v>-15000000</v>
+      </c>
+      <c r="H28" s="40">
+        <v>8000000</v>
+      </c>
+      <c r="I28" s="40">
+        <v>49000000</v>
+      </c>
+      <c r="J28" s="40">
+        <v>106000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3563,8 +3764,28 @@
         <f>(E28/D28)-1</f>
         <v>0.11098362018791064</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F29" s="16">
+        <f t="shared" ref="F29:J29" si="5">(F28/E28)-1</f>
+        <v>-0.25159783861455787</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="5"/>
+        <v>-0.7</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="5"/>
+        <v>-1.5333333333333332</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="5"/>
+        <v>5.125</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="5"/>
+        <v>1.1632653061224492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3580,8 +3801,28 @@
       <c r="E30" s="2">
         <v>-0.18079999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F30" s="41">
+        <f>F28/F3</f>
+        <v>-9.8814229249011856E-2</v>
+      </c>
+      <c r="G30" s="41">
+        <f t="shared" ref="G30:J30" si="6">G28/G3</f>
+        <v>-2.358490566037736E-2</v>
+      </c>
+      <c r="H30" s="41">
+        <f t="shared" si="6"/>
+        <v>1.0126582278481013E-2</v>
+      </c>
+      <c r="I30" s="41">
+        <f t="shared" si="6"/>
+        <v>5.4444444444444441E-2</v>
+      </c>
+      <c r="J30" s="41">
+        <f t="shared" si="6"/>
+        <v>0.10433070866141732</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3597,8 +3838,28 @@
       <c r="E31" s="12">
         <v>-2.85</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="F31" s="42">
+        <f>F28/$E$33</f>
+        <v>-2.1337430119916356</v>
+      </c>
+      <c r="G31" s="42">
+        <f t="shared" ref="G31:J31" si="7">G28/$E$33</f>
+        <v>-0.64012290359749069</v>
+      </c>
+      <c r="H31" s="42">
+        <f t="shared" si="7"/>
+        <v>0.34139888191866169</v>
+      </c>
+      <c r="I31" s="42">
+        <f t="shared" si="7"/>
+        <v>2.0910681517518031</v>
+      </c>
+      <c r="J31" s="42">
+        <f t="shared" si="7"/>
+        <v>4.5235351854222676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3651,7 +3912,7 @@
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -3659,11 +3920,11 @@
         <v>0</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:E35" si="3">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:E35" si="8">(D34-C34)/C34</f>
         <v>-0.26332170140526268</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3672,16 +3933,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -3689,16 +3950,16 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3723,16 +3984,16 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3774,16 +4035,16 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3800,7 +4061,7 @@
         <v>32186000</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3842,13 +4103,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1">
         <v>4050000</v>
@@ -3893,16 +4154,16 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -3910,13 +4171,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1">
         <v>633000</v>
@@ -3961,13 +4222,13 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1">
         <v>42275000</v>
@@ -4114,16 +4375,16 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4131,16 +4392,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4154,10 +4415,10 @@
         <v>182609000</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4182,16 +4443,16 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4256,10 +4517,10 @@
         <v>-3067000</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4318,16 +4579,16 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -4335,16 +4596,16 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4386,16 +4647,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="19" x14ac:dyDescent="0.25">
@@ -4417,22 +4678,22 @@
     </row>
     <row r="80" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:E80" si="4">B79/B3</f>
+        <f t="shared" ref="B80:E80" si="9">B79/B3</f>
         <v>5.2642736009044656E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.10532728082327331</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.16271354058666837</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.19978619467110514</v>
       </c>
     </row>
@@ -4475,21 +4736,21 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L83" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="M83" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="L83" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="M83" s="67"/>
     </row>
     <row r="84" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4507,10 +4768,10 @@
       <c r="E84" s="1">
         <v>-6655000</v>
       </c>
-      <c r="L84" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="M84" s="67"/>
+      <c r="L84" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="M84" s="68"/>
     </row>
     <row r="85" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4526,12 +4787,12 @@
         <v>33206000</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L85" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="M85" s="25">
+        <v>91</v>
+      </c>
+      <c r="L85" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="M85" s="45">
         <f>E17</f>
         <v>0</v>
       </c>
@@ -4544,18 +4805,18 @@
         <v>1228000</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L86" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="M86" s="25">
+        <v>91</v>
+      </c>
+      <c r="L86" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="M86" s="45">
         <f>E56</f>
         <v>23503000</v>
       </c>
@@ -4576,10 +4837,10 @@
       <c r="E87" s="10">
         <v>53656000</v>
       </c>
-      <c r="L87" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="M87" s="25">
+      <c r="L87" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="M87" s="45">
         <f>E61</f>
         <v>23503000</v>
       </c>
@@ -4600,38 +4861,38 @@
       <c r="E88" s="1">
         <v>-5562000</v>
       </c>
-      <c r="L88" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="M88" s="35">
+      <c r="L88" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="M88" s="47">
         <f>M85/(M86+M87)</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:E89" si="10">(-1*B88)/B3</f>
+        <v>5.3278688524590161E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="10"/>
+        <v>2.0878685929151E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="10"/>
+        <v>1.4299842087633389E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="10"/>
+        <v>1.505297771282426E-2</v>
+      </c>
+      <c r="L89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:E89" si="5">(-1*B88)/B3</f>
-        <v>5.3278688524590161E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="5"/>
-        <v>2.0878685929151E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="5"/>
-        <v>1.4299842087633389E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="5"/>
-        <v>1.505297771282426E-2</v>
-      </c>
-      <c r="L89" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="M89" s="25">
+      <c r="M89" s="45">
         <f>E27</f>
         <v>938000</v>
       </c>
@@ -4641,21 +4902,21 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1">
         <v>-4050000</v>
       </c>
-      <c r="L90" s="24" t="s">
+      <c r="L90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="M90" s="25">
+      <c r="M90" s="45">
         <f>E25</f>
         <v>-65871000</v>
       </c>
@@ -4665,21 +4926,21 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L91" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="M91" s="35">
+        <v>91</v>
+      </c>
+      <c r="L91" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="M91" s="47">
         <f>M89/M90</f>
         <v>-1.4239953849190084E-2</v>
       </c>
@@ -4692,18 +4953,18 @@
         <v>7677000</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L92" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="M92" s="37">
+        <v>91</v>
+      </c>
+      <c r="L92" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="M92" s="47">
         <f>M88*(1-M91)</f>
         <v>0</v>
       </c>
@@ -4724,10 +4985,10 @@
       <c r="E93" s="1">
         <v>-4562000</v>
       </c>
-      <c r="L93" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="M93" s="67"/>
+      <c r="L93" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="M93" s="68"/>
     </row>
     <row r="94" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4745,11 +5006,12 @@
       <c r="E94" s="10">
         <v>-14174000</v>
       </c>
-      <c r="L94" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="M94" s="38">
-        <v>4.095E-2</v>
+      <c r="L94" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="M94" s="48">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -4757,21 +5019,21 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L95" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="M95" s="39" cm="1">
+        <v>91</v>
+      </c>
+      <c r="L95" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="M95" s="49" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
         <v>1.0389999999999999</v>
       </c>
@@ -4781,21 +5043,21 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>426191000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L96" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="M96" s="38">
+        <v>91</v>
+      </c>
+      <c r="L96" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="M96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -4807,20 +5069,20 @@
         <v>-168000</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1">
         <v>-868000</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L97" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M97" s="37">
+        <v>91</v>
+      </c>
+      <c r="L97" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="M97" s="47">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>8.5678950000000004E-2</v>
+        <v>8.5750320000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -4828,21 +5090,21 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L98" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="M98" s="67"/>
+        <v>91</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="M98" s="68"/>
     </row>
     <row r="99" spans="1:13" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4860,10 +5122,10 @@
       <c r="E99" s="1">
         <v>14776000</v>
       </c>
-      <c r="L99" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="M99" s="25">
+      <c r="L99" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="M99" s="45">
         <f>M86+M87</f>
         <v>47006000</v>
       </c>
@@ -4884,10 +5146,10 @@
       <c r="E100" s="10">
         <v>14776000</v>
       </c>
-      <c r="L100" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="M100" s="35">
+      <c r="L100" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="M100" s="47">
         <f>M99/M103</f>
         <v>7.9435026510768364E-3</v>
       </c>
@@ -4897,21 +5159,21 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L101" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="M101" s="40" cm="1">
+        <v>91</v>
+      </c>
+      <c r="L101" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="M101" s="50" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
         <v>5870534670</v>
       </c>
@@ -4932,10 +5194,10 @@
       <c r="E102" s="10">
         <v>54258000</v>
       </c>
-      <c r="L102" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="M102" s="35">
+      <c r="L102" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="M102" s="47">
         <f>M101/M103</f>
         <v>0.99205649734892321</v>
       </c>
@@ -4956,10 +5218,10 @@
       <c r="E103" s="1">
         <v>553922000</v>
       </c>
-      <c r="L103" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="M103" s="41">
+      <c r="L103" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="M103" s="51">
         <f>M99+M101</f>
         <v>5917540670</v>
       </c>
@@ -4980,238 +5242,254 @@
       <c r="E104" s="11">
         <v>608180000</v>
       </c>
-      <c r="L104" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="M104" s="67"/>
+      <c r="L104" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="M104" s="68"/>
     </row>
     <row r="105" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+        <v>162</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:D105" si="11">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>-4317000</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="11"/>
+        <v>268200</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="11"/>
+        <v>-23090600</v>
+      </c>
+      <c r="E105" s="1">
+        <f>(E22*(1-0.2))+E77+E88+E81</f>
+        <v>-18308000</v>
+      </c>
+      <c r="F105" s="28">
+        <f>E105*(1+$M$106)</f>
+        <v>-22469852.990005963</v>
+      </c>
+      <c r="G105" s="28">
+        <f t="shared" ref="G105:J105" si="12">F105*(1+$M$106)</f>
+        <v>-27577796.230745025</v>
+      </c>
+      <c r="H105" s="28">
+        <f t="shared" si="12"/>
+        <v>-33846899.010988705</v>
+      </c>
+      <c r="I105" s="28">
+        <f t="shared" si="12"/>
+        <v>-41541121.091571681</v>
+      </c>
+      <c r="J105" s="28">
+        <f t="shared" si="12"/>
+        <v>-50984426.69694405</v>
+      </c>
+      <c r="K105" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="L105" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="M105" s="53">
+        <f>(M100*M92)+(M102*M97)</f>
+        <v>8.5069162105749316E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
         <v>-5.4259857789269557</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
         <v>-0.78355484153643928</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
         <v>13.686909581646423</v>
       </c>
-      <c r="F105" s="60">
-        <v>88341000</v>
-      </c>
-      <c r="G105" s="60">
-        <v>123600000</v>
-      </c>
-      <c r="H105" s="60">
-        <v>202700000</v>
-      </c>
-      <c r="I105" s="60">
-        <v>250000000</v>
-      </c>
-      <c r="J105" s="60">
-        <v>300000000</v>
-      </c>
-      <c r="K105" s="15"/>
-      <c r="L105" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="M105" s="27">
-        <f>(M100*M92)+(M102*M97)</f>
-        <v>8.4998359033533533E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="F106" s="31">
+        <v>88100000</v>
+      </c>
+      <c r="G106" s="31">
+        <v>125000000</v>
+      </c>
+      <c r="H106" s="31">
+        <v>187000000</v>
+      </c>
+      <c r="I106" s="31">
+        <v>220000000</v>
+      </c>
+      <c r="J106" s="31">
+        <v>290000000</v>
+      </c>
+      <c r="K106" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="L106" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="M106" s="55">
+        <f>(SUM(F4:J4)/5)</f>
+        <v>0.22732428391992374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
         <v>-3094000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>13694000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>2964000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>43532000</v>
       </c>
-      <c r="F106" s="42">
-        <f>E106*(1+$M$106)</f>
-        <v>54230190.73262462</v>
-      </c>
-      <c r="G106" s="42">
-        <f t="shared" ref="G106:J106" si="6">F106*(1+$M$106)</f>
-        <v>67557511.414519086</v>
-      </c>
-      <c r="H106" s="42">
-        <f t="shared" si="6"/>
-        <v>84160082.914426968</v>
-      </c>
-      <c r="I106" s="42">
-        <f t="shared" si="6"/>
-        <v>104842813.29878886</v>
-      </c>
-      <c r="J106" s="42">
-        <f t="shared" si="6"/>
-        <v>130608420.5214158</v>
-      </c>
-      <c r="K106" s="43" t="s">
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="32">
+        <f>J106*(1+M107)/(M108-M107)</f>
+        <v>4948462565.1462135</v>
+      </c>
+      <c r="K107" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="L107" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="L106" s="44" t="s">
+      <c r="M107" s="57">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F108" s="32">
+        <f t="shared" ref="F108:I108" si="13">F107+F106</f>
+        <v>88100000</v>
+      </c>
+      <c r="G108" s="32">
+        <f t="shared" si="13"/>
+        <v>125000000</v>
+      </c>
+      <c r="H108" s="32">
+        <f t="shared" si="13"/>
+        <v>187000000</v>
+      </c>
+      <c r="I108" s="32">
+        <f t="shared" si="13"/>
+        <v>220000000</v>
+      </c>
+      <c r="J108" s="32">
+        <f>J107+J106</f>
+        <v>5238462565.1462135</v>
+      </c>
+      <c r="K108" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="L108" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="M106" s="45">
-        <f>(SUM(F4:J4)/5)</f>
-        <v>0.24575463412259063</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="61">
-        <f>J105*(1+M107)/(M108-M107)</f>
-        <v>5125140169.7192411</v>
-      </c>
-      <c r="K107" s="47" t="s">
+      <c r="M108" s="55">
+        <f>M105</f>
+        <v>8.5069162105749316E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="F109" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="L107" s="48" t="s">
+      <c r="G109" s="65"/>
+    </row>
+    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F110" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="M107" s="49">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F108" s="46">
-        <f t="shared" ref="F108:H108" si="7">F107+F106</f>
-        <v>54230190.73262462</v>
-      </c>
-      <c r="G108" s="46">
-        <f t="shared" si="7"/>
-        <v>67557511.414519086</v>
-      </c>
-      <c r="H108" s="46">
-        <f t="shared" si="7"/>
-        <v>84160082.914426968</v>
-      </c>
-      <c r="I108" s="46">
-        <f>I107+I106</f>
-        <v>104842813.29878886</v>
-      </c>
-      <c r="J108" s="61">
-        <f>J107+J105</f>
-        <v>5425140169.7192411</v>
-      </c>
-      <c r="K108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="L108" s="50" t="s">
+      <c r="G110" s="50">
+        <f>NPV(M108,F108,G108,H108,I108,J108)</f>
+        <v>3975148456.6570578</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
+      <c r="F111" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="M108" s="51">
-        <f>M105</f>
-        <v>8.4998359033533533E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="F109" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="G109" s="63"/>
-    </row>
-    <row r="110" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="G110" s="40">
-        <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>3856903246.4249468</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="G111" s="40">
+      <c r="G111" s="50">
         <f>E40</f>
         <v>608180000</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="F112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="G112" s="40">
+      <c r="F112" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="G112" s="50">
         <f>M99</f>
         <v>47006000</v>
       </c>
     </row>
     <row r="113" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="G113" s="40">
+      <c r="F113" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="G113" s="50">
         <f>G110+G111-G112</f>
-        <v>4418077246.4249468</v>
+        <v>4536322456.6570578</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F114" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="G114" s="53" cm="1">
+      <c r="F114" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="G114" s="59" cm="1">
         <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>41052690</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F115" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="G115" s="55">
+      <c r="F115" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="G115" s="61">
         <f>G113/G114</f>
-        <v>107.61967721055422</v>
+        <v>110.5000051557415</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F116" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="G116" s="56" cm="1">
+      <c r="F116" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="G116" s="62" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
         <v>143</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F117" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="G117" s="58">
+      <c r="F117" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="G117" s="63">
         <f>G115/G116-1</f>
-        <v>-0.24741484468143904</v>
+        <v>-0.22727269121859084</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="F118" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="G118" s="59" t="str">
+      <c r="F118" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="G118" s="64" t="str">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -5236,8 +5514,9 @@
     <hyperlink ref="E36" r:id="rId8" tooltip="https://www.sec.gov/Archives/edgar/data/1562088/000156208823000052/0001562088-23-000052-index.htm" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E74" r:id="rId9" tooltip="https://www.sec.gov/Archives/edgar/data/1562088/000156208823000052/0001562088-23-000052-index.htm" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="F1" r:id="rId10" display="https://finbox.com/NASDAQGS:DUOL/explorer/revenue_proj" xr:uid="{3D929342-21D7-8547-B9EB-2B0B36B7C0D2}"/>
+    <hyperlink ref="K106" r:id="rId11" xr:uid="{07A437B3-0B03-2540-9DEE-BBB31A3D427E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Technology/Software/Duolingo.xlsx
+++ b/Technology/Software/Duolingo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D81DAB-F6D2-454D-9011-484642E7108A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE26F8F-BC2E-574C-BD39-4397EC9865B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2149,48 +2149,40 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
-      <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
+      <sheetName val="Technology - Software"/>
+      <sheetName val="Technology - Hardware"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodity Stocks"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
+      <sheetName val="ROIC"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2316,11 +2308,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>168.39500000000001</v>
+    <v>179.02</v>
     <v>64.73</v>
-    <v>1.0389999999999999</v>
-    <v>0.7</v>
-    <v>4.9189999999999998E-3</v>
+    <v>1.1399999999999999</v>
+    <v>1.35</v>
+    <v>7.7480000000000005E-3</v>
+    <v>0.91</v>
+    <v>5.1830000000000001E-3</v>
     <v>USD</v>
     <v>Duolingo, Inc. (Duolingo) is a technology company. The Company's flagship application, Duolingo, is a language learning application. The Duolingo language learning application is a way to learn languages. The Company offers courses in approximately 40 languages to more than 60 million monthly active users. The application is also available in the education category on both Google Play and the Apple App Store. Duolingo can also be accessed by desktop computers via a Web browser at www.duolingo.com. All course content on Duolingo can be accessed for free. Its subscription offering, Super Duolingo, offers learners additional features to enhance their learning experience. It also launched a family plan, which includes up to six subscribers under one annual plan. The Duolingo English Test is an online English proficiency assessment. Anyone with a computer, webcam and Internet connection can take the test from anywhere, at any time.</v>
     <v>650</v>
@@ -2328,23 +2322,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5900 PENN AVE, SECOND FLOOR, PITTSBURGH, PA, 15206 US</v>
-    <v>143.995</v>
+    <v>179.02</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.964127488282</v>
+    <v>45209.993442117971</v>
     <v>0</v>
-    <v>139.27000000000001</v>
-    <v>5870534670</v>
+    <v>173.03</v>
+    <v>7293559089</v>
     <v>DUOLINGO, INC.</v>
     <v>DUOLINGO, INC.</v>
-    <v>141.16999999999999</v>
-    <v>142.30000000000001</v>
-    <v>143</v>
-    <v>41052690</v>
+    <v>175</v>
+    <v>174.24</v>
+    <v>175.59</v>
+    <v>176.5</v>
+    <v>41537440</v>
     <v>DUOL</v>
     <v>DUOLINGO, INC. (XNAS:DUOL)</v>
-    <v>66</v>
-    <v>644027</v>
+    <v>436750</v>
+    <v>507012</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2376,6 +2371,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2395,6 +2392,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2411,7 +2409,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2422,13 +2420,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2492,13 +2493,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2542,6 +2549,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2549,6 +2559,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2910,10 +2923,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3419,15 +3432,15 @@
       </c>
       <c r="L16" s="37">
         <f>M101/E3</f>
-        <v>15.887994884910485</v>
+        <v>19.739263289083748</v>
       </c>
       <c r="M16" s="37">
         <f>M101/E28</f>
-        <v>-87.870416710323454</v>
+        <v>-109.17030772800072</v>
       </c>
       <c r="N16" s="34">
         <f>M101/E107</f>
-        <v>134.85561586878617</v>
+        <v>167.54477370669852</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -3513,15 +3526,15 @@
       </c>
       <c r="L19" s="33">
         <f>M101/F3</f>
-        <v>11.601847173913043</v>
+        <v>14.414148397233202</v>
       </c>
       <c r="M19" s="33">
         <f>M101/F28</f>
-        <v>-117.4106934</v>
+        <v>-145.87118178</v>
       </c>
       <c r="N19" s="34">
         <f>M101/F105</f>
-        <v>-261.26270931149702</v>
+        <v>-324.59309334351212</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3627,7 +3640,7 @@
       </c>
       <c r="N22" s="36">
         <f>E107/M101</f>
-        <v>7.4153382012136209E-3</v>
+        <v>5.9685538252036777E-3</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5009,9 +5022,9 @@
       <c r="L94" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="M94" s="48">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+      <c r="M94" s="48" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5035,7 +5048,7 @@
       </c>
       <c r="M95" s="49" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.0389999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5080,9 +5093,9 @@
       <c r="L97" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="M97" s="47">
+      <c r="M97" s="47" t="e">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>8.5750320000000005E-2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5151,7 +5164,7 @@
       </c>
       <c r="M100" s="47">
         <f>M99/M103</f>
-        <v>7.9435026510768364E-3</v>
+        <v>6.4035941960980001E-3</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5175,7 +5188,7 @@
       </c>
       <c r="M101" s="50" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5870534670</v>
+        <v>7293559089</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5199,7 +5212,7 @@
       </c>
       <c r="M102" s="47">
         <f>M101/M103</f>
-        <v>0.99205649734892321</v>
+        <v>0.99359640580390196</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5223,7 +5236,7 @@
       </c>
       <c r="M103" s="51">
         <f>M99+M101</f>
-        <v>5917540670</v>
+        <v>7340565089</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5293,9 +5306,9 @@
       <c r="L105" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="M105" s="53">
+      <c r="M105" s="53" t="e">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>8.5069162105749316E-2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5361,9 +5374,9 @@
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
       <c r="I107" s="29"/>
-      <c r="J107" s="32">
+      <c r="J107" s="32" t="e">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>4948462565.1462135</v>
+        <v>#REF!</v>
       </c>
       <c r="K107" s="30" t="s">
         <v>145</v>
@@ -5392,9 +5405,9 @@
         <f t="shared" si="13"/>
         <v>220000000</v>
       </c>
-      <c r="J108" s="32">
+      <c r="J108" s="32" t="e">
         <f>J107+J106</f>
-        <v>5238462565.1462135</v>
+        <v>#REF!</v>
       </c>
       <c r="K108" s="30" t="s">
         <v>142</v>
@@ -5402,9 +5415,9 @@
       <c r="L108" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="M108" s="55">
+      <c r="M108" s="55" t="e">
         <f>M105</f>
-        <v>8.5069162105749316E-2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="19" x14ac:dyDescent="0.25">
@@ -5417,9 +5430,9 @@
       <c r="F110" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="G110" s="50">
+      <c r="G110" s="50" t="e">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>3975148456.6570578</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="20" x14ac:dyDescent="0.25">
@@ -5444,9 +5457,9 @@
       <c r="F113" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="G113" s="50">
+      <c r="G113" s="50" t="e">
         <f>G110+G111-G112</f>
-        <v>4536322456.6570578</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5455,16 +5468,16 @@
       </c>
       <c r="G114" s="59" cm="1">
         <f t="array" ref="G114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>41052690</v>
+        <v>41537440</v>
       </c>
     </row>
     <row r="115" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F115" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="G115" s="61">
+      <c r="G115" s="61" t="e">
         <f>G113/G114</f>
-        <v>110.5000051557415</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5473,25 +5486,25 @@
       </c>
       <c r="G116" s="62" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>143</v>
+        <v>175.59</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F117" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="G117" s="63">
+      <c r="G117" s="63" t="e">
         <f>G115/G116-1</f>
-        <v>-0.22727269121859084</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
       <c r="F118" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="G118" s="64" t="str">
+      <c r="G118" s="64" t="e">
         <f>IF(G115&gt;G116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>

--- a/Technology/Software/Duolingo.xlsx
+++ b/Technology/Software/Duolingo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466E65F4-A4F7-294E-8842-25D2CFFCB1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC6DBA6-DAFA-5241-A8A1-7B7AF6BDE7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="500" windowWidth="36820" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1730,6 +1730,7 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
@@ -1748,7 +1749,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1760,6 +1761,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1885,13 +1887,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>203.51</v>
+    <v>226.79480000000001</v>
     <v>64.73</v>
-    <v>1.1830000000000001</v>
-    <v>35.75</v>
-    <v>0.21372599999999997</v>
-    <v>-1.72</v>
-    <v>-8.4720000000000004E-3</v>
+    <v>1.2210000000000001</v>
+    <v>1.01</v>
+    <v>4.7580000000000001E-3</v>
+    <v>-2.2999999999999998</v>
+    <v>-1.0783000000000001E-2</v>
     <v>USD</v>
     <v>Duolingo, Inc. (Duolingo) is a technology company. The Company's flagship application, Duolingo, is a language learning application. The Duolingo language learning application is a way to learn languages. The Company offers courses in approximately 40 languages to more than 60 million monthly active users. The application is also available in the education category on both Google Play and the Apple App Store. Duolingo can also be accessed by desktop computers via a Web browser at www.duolingo.com. All course content on Duolingo can be accessed for free. Its subscription offering, Super Duolingo, offers learners additional features to enhance their learning experience. It also launched a family plan, which includes up to six subscribers under one annual plan. The Duolingo English Test is an online English proficiency assessment. Anyone with a computer, webcam and Internet connection can take the test from anywhere, at any time.</v>
     <v>650</v>
@@ -1899,24 +1901,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5900 PENN AVE, SECOND FLOOR, PITTSBURGH, PA, 15206 US</v>
-    <v>203.51</v>
+    <v>215.52</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45240.041302291407</v>
+    <v>45262.038211990628</v>
     <v>0</v>
-    <v>184</v>
-    <v>8432931068</v>
+    <v>206.62860000000001</v>
+    <v>8961547806</v>
     <v>DUOLINGO, INC.</v>
     <v>DUOLINGO, INC.</v>
-    <v>185</v>
-    <v>167.27</v>
-    <v>203.02</v>
-    <v>201.3</v>
-    <v>41537440</v>
+    <v>212.5</v>
+    <v>212.29</v>
+    <v>213.3</v>
+    <v>211</v>
+    <v>42013820</v>
     <v>DUOL</v>
     <v>DUOLINGO, INC. (XNAS:DUOL)</v>
-    <v>3446390</v>
-    <v>660732</v>
+    <v>692019</v>
+    <v>894629</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -2078,9 +2080,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -8810,7 +8812,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>8432931068</v>
+        <v>8961547806</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>192</v>
@@ -8838,7 +8840,7 @@
       </c>
       <c r="I3" s="42">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>3406332754.2058401</v>
+        <v>3361983329.905107</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>196</v>
@@ -8883,21 +8885,21 @@
       </c>
       <c r="G4" s="51">
         <f>A5*(1+(5*G3))</f>
-        <v>56367527.713693745</v>
+        <v>57013989.384231202</v>
       </c>
       <c r="H4" s="50" t="s">
         <v>202</v>
       </c>
       <c r="I4" s="52">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>2826006989.5159078</v>
+        <v>2787078402.1401668</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="53" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>0.21372599999999997</v>
+        <v>4.7580000000000001E-3</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>204</v>
@@ -8914,7 +8916,7 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>41537440</v>
+        <v>42013820</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>206</v>
@@ -8942,14 +8944,14 @@
       </c>
       <c r="I5" s="52">
         <f>I4+G5-G6</f>
-        <v>3477326989.5159078</v>
+        <v>3438398402.1401668</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>203.02</v>
+        <v>213.3</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>211</v>
@@ -8969,7 +8971,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>16.37462343300971</v>
+        <v>17.401063700970873</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>213</v>
@@ -8997,14 +8999,14 @@
       </c>
       <c r="I6" s="53">
         <f>N25</f>
-        <v>9.4510237867293206E-2</v>
+        <v>9.5427178473452764E-2</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>216</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>61.690252004278292</v>
+        <v>60.307977731008435</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>217</v>
@@ -9024,14 +9026,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63">
         <f>O20/F12</f>
-        <v>95.828762136363636</v>
+        <v>101.83577052272727</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="65">
         <f>F15/A3</f>
-        <v>1.2688352262954844E-2</v>
+        <v>1.1939901713001027E-2</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>220</v>
@@ -9058,7 +9060,7 @@
       </c>
       <c r="K7" s="71">
         <f>K6/K5-1</f>
-        <v>-0.69613707021831206</v>
+        <v>-0.7172621766009919</v>
       </c>
       <c r="L7" s="72" t="s">
         <v>223</v>
@@ -9385,7 +9387,7 @@
       </c>
       <c r="O14" s="91">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
@@ -9537,7 +9539,7 @@
       </c>
       <c r="O17" s="100">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6843600000000002E-2</v>
+        <v>9.762570000000001E-2</v>
       </c>
       <c r="P17" s="46"/>
       <c r="Q17" s="46"/>
@@ -9620,7 +9622,7 @@
       </c>
       <c r="O20" s="106">
         <f>A3</f>
-        <v>8432931068</v>
+        <v>8961547806</v>
       </c>
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
@@ -9650,7 +9652,7 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>8460276068</v>
+        <v>8988892806</v>
       </c>
       <c r="P21" s="46"/>
       <c r="Q21" s="46"/>
@@ -9678,7 +9680,7 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>3.23216403108041E-3</v>
+        <v>3.0420876731055771E-3</v>
       </c>
       <c r="P22" s="46"/>
       <c r="Q22" s="46"/>
@@ -9703,7 +9705,7 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.9967678359689196</v>
+        <v>0.99695791232689446</v>
       </c>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
@@ -9747,7 +9749,7 @@
       <c r="M25" s="74"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.4510237867293206E-2</v>
+        <v>9.5427178473452764E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="46"/>

--- a/Technology/Software/Duolingo.xlsx
+++ b/Technology/Software/Duolingo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC6DBA6-DAFA-5241-A8A1-7B7AF6BDE7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61315AD2-0395-454D-8392-2C439528C896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1371,7 +1371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1692,7 +1692,10 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1730,8 +1733,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
-      <sheetName val="Small Caps"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1904,10 +1907,10 @@
     <v>215.52</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.038211990628</v>
+    <v>45261.902911376565</v>
     <v>0</v>
     <v>206.62860000000001</v>
-    <v>8961547806</v>
+    <v>8961547000</v>
     <v>DUOLINGO, INC.</v>
     <v>DUOLINGO, INC.</v>
     <v>212.5</v>
@@ -2080,9 +2083,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -8762,8 +8765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66270A8-5549-EE44-B886-F59AD6C61E28}">
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8812,7 +8815,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>8961547806</v>
+        <v>8961547000</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>192</v>
@@ -8840,7 +8843,7 @@
       </c>
       <c r="I3" s="42">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>3361983329.905107</v>
+        <v>3361983339.3156538</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>196</v>
@@ -8892,7 +8895,7 @@
       </c>
       <c r="I4" s="52">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>2787078402.1401668</v>
+        <v>2787078410.399785</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>203</v>
@@ -8944,7 +8947,7 @@
       </c>
       <c r="I5" s="52">
         <f>I4+G5-G6</f>
-        <v>3438398402.1401668</v>
+        <v>3438398410.399785</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>210</v>
@@ -8971,7 +8974,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>17.401063700970873</v>
+        <v>17.401062135922331</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>213</v>
@@ -8999,14 +9002,14 @@
       </c>
       <c r="I6" s="53">
         <f>N25</f>
-        <v>9.5427178473452764E-2</v>
+        <v>9.5427178276319635E-2</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>216</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>60.307977731008435</v>
+        <v>60.307977875878464</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>217</v>
@@ -9026,14 +9029,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63">
         <f>O20/F12</f>
-        <v>101.83577052272727</v>
+        <v>101.83576136363637</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="65">
         <f>F15/A3</f>
-        <v>1.1939901713001027E-2</v>
+        <v>1.193990278687374E-2</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>220</v>
@@ -9060,7 +9063,7 @@
       </c>
       <c r="K7" s="71">
         <f>K6/K5-1</f>
-        <v>-0.7172621766009919</v>
+        <v>-0.71726217592180752</v>
       </c>
       <c r="L7" s="72" t="s">
         <v>223</v>
@@ -9622,24 +9625,24 @@
       </c>
       <c r="O20" s="106">
         <f>A3</f>
-        <v>8961547806</v>
+        <v>8961547000</v>
       </c>
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
       <c r="R20" s="46"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="111" t="str" cm="1">
+      <c r="A21" s="122" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="122" cm="1">
+      <c r="B21" s="122"/>
+      <c r="C21" s="123" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2011</v>
       </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
       <c r="F21" s="74"/>
       <c r="G21" s="74"/>
       <c r="H21" s="74"/>
@@ -9652,7 +9655,7 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>8988892806</v>
+        <v>8988892000</v>
       </c>
       <c r="P21" s="46"/>
       <c r="Q21" s="46"/>
@@ -9680,7 +9683,7 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>3.0420876731055771E-3</v>
+        <v>3.0420879458780904E-3</v>
       </c>
       <c r="P22" s="46"/>
       <c r="Q22" s="46"/>
@@ -9705,7 +9708,7 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.99695791232689446</v>
+        <v>0.99695791205412188</v>
       </c>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
@@ -9749,7 +9752,7 @@
       <c r="M25" s="74"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.5427178473452764E-2</v>
+        <v>9.5427178276319635E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="46"/>

--- a/Technology/Software/Duolingo.xlsx
+++ b/Technology/Software/Duolingo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61315AD2-0395-454D-8392-2C439528C896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681C5EC3-D8C7-E94F-AEDE-AAF38702C77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1733,6 +1733,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1752,7 +1754,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1765,6 +1767,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1892,11 +1896,11 @@
     <v>Powered by Refinitiv</v>
     <v>226.79480000000001</v>
     <v>64.73</v>
-    <v>1.2210000000000001</v>
-    <v>1.01</v>
-    <v>4.7580000000000001E-3</v>
-    <v>-2.2999999999999998</v>
-    <v>-1.0783000000000001E-2</v>
+    <v>1.2190000000000001</v>
+    <v>3.33</v>
+    <v>1.5751000000000001E-2</v>
+    <v>2.25</v>
+    <v>1.0477E-2</v>
     <v>USD</v>
     <v>Duolingo, Inc. (Duolingo) is a technology company. The Company's flagship application, Duolingo, is a language learning application. The Duolingo language learning application is a way to learn languages. The Company offers courses in approximately 40 languages to more than 60 million monthly active users. The application is also available in the education category on both Google Play and the Apple App Store. Duolingo can also be accessed by desktop computers via a Web browser at www.duolingo.com. All course content on Duolingo can be accessed for free. Its subscription offering, Super Duolingo, offers learners additional features to enhance their learning experience. It also launched a family plan, which includes up to six subscribers under one annual plan. The Duolingo English Test is an online English proficiency assessment. Anyone with a computer, webcam and Internet connection can take the test from anywhere, at any time.</v>
     <v>650</v>
@@ -1904,24 +1908,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>5900 PENN AVE, SECOND FLOOR, PITTSBURGH, PA, 15206 US</v>
-    <v>215.52</v>
+    <v>219</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.902911376565</v>
+    <v>45268.975681376563</v>
     <v>0</v>
-    <v>206.62860000000001</v>
-    <v>8961547000</v>
+    <v>208.02</v>
+    <v>9022467845</v>
     <v>DUOLINGO, INC.</v>
     <v>DUOLINGO, INC.</v>
-    <v>212.5</v>
-    <v>212.29</v>
-    <v>213.3</v>
-    <v>211</v>
+    <v>209</v>
+    <v>211.42</v>
+    <v>214.75</v>
+    <v>217</v>
     <v>42013820</v>
     <v>DUOL</v>
     <v>DUOLINGO, INC. (XNAS:DUOL)</v>
-    <v>692019</v>
-    <v>894629</v>
+    <v>433448</v>
+    <v>888277</v>
     <v>2011</v>
   </rv>
   <rv s="2">
@@ -8765,7 +8769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66270A8-5549-EE44-B886-F59AD6C61E28}">
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -8815,7 +8819,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>8961547000</v>
+        <v>9022467845</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>192</v>
@@ -8843,7 +8847,7 @@
       </c>
       <c r="I3" s="42">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>3361983339.3156538</v>
+        <v>3337892291.9317355</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>196</v>
@@ -8895,14 +8899,14 @@
       </c>
       <c r="I4" s="52">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>2787078410.399785</v>
+        <v>2765934706.7907486</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="53" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.7580000000000001E-3</v>
+        <v>1.5751000000000001E-2</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>204</v>
@@ -8947,14 +8951,14 @@
       </c>
       <c r="I5" s="52">
         <f>I4+G5-G6</f>
-        <v>3438398410.399785</v>
+        <v>3417254706.7907486</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>213.3</v>
+        <v>214.75</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>211</v>
@@ -8974,7 +8978,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>17.401062135922331</v>
+        <v>17.519355038834952</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>213</v>
@@ -9002,14 +9006,14 @@
       </c>
       <c r="I6" s="53">
         <f>N25</f>
-        <v>9.5427178276319635E-2</v>
+        <v>9.5935482421744475E-2</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>216</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>60.307977875878464</v>
+        <v>59.937126724478695</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>217</v>
@@ -9029,14 +9033,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63">
         <f>O20/F12</f>
-        <v>101.83576136363637</v>
+        <v>102.52804369318181</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="65">
         <f>F15/A3</f>
-        <v>1.193990278687374E-2</v>
+        <v>1.1859283051842232E-2</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>220</v>
@@ -9063,7 +9067,7 @@
       </c>
       <c r="K7" s="71">
         <f>K6/K5-1</f>
-        <v>-0.71726217592180752</v>
+        <v>-0.72089812933886521</v>
       </c>
       <c r="L7" s="72" t="s">
         <v>223</v>
@@ -9390,7 +9394,7 @@
       </c>
       <c r="O14" s="91">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
@@ -9542,7 +9546,7 @@
       </c>
       <c r="O17" s="100">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="46"/>
       <c r="Q17" s="46"/>
@@ -9625,7 +9629,7 @@
       </c>
       <c r="O20" s="106">
         <f>A3</f>
-        <v>8961547000</v>
+        <v>9022467845</v>
       </c>
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
@@ -9655,7 +9659,7 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>8988892000</v>
+        <v>9049812845</v>
       </c>
       <c r="P21" s="46"/>
       <c r="Q21" s="46"/>
@@ -9683,7 +9687,7 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>3.0420879458780904E-3</v>
+        <v>3.0216094485432422E-3</v>
       </c>
       <c r="P22" s="46"/>
       <c r="Q22" s="46"/>
@@ -9708,7 +9712,7 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.99695791205412188</v>
+        <v>0.99697839055145676</v>
       </c>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
@@ -9752,7 +9756,7 @@
       <c r="M25" s="74"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.5427178276319635E-2</v>
+        <v>9.5935482421744475E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="46"/>
